--- a/Base/Teams/Bills/Target Depth Data.xlsx
+++ b/Base/Teams/Bills/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="C2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -506,10 +506,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D2">
         <v>56</v>

--- a/Base/Teams/Bills/Target Depth Data.xlsx
+++ b/Base/Teams/Bills/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="C3">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="D3">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E3">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="C3">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>11</v>

--- a/Base/Teams/Bills/Target Depth Data.xlsx
+++ b/Base/Teams/Bills/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C2">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="D2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="C2">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>5</v>

--- a/Base/Teams/Bills/Target Depth Data.xlsx
+++ b/Base/Teams/Bills/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="C3">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="D3">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="C3">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Bills/Target Depth Data.xlsx
+++ b/Base/Teams/Bills/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="C2">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E2">
         <v>49</v>
       </c>
       <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
         <v>5</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="C2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>6</v>

--- a/Base/Teams/Bills/Target Depth Data.xlsx
+++ b/Base/Teams/Bills/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="C2">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="C2">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
         <v>6</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Bills/Target Depth Data.xlsx
+++ b/Base/Teams/Bills/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="C3">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E3">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="C3">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="D3">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>11</v>
